--- a/Code/Results/Cases/Case_1_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4130471769718724</v>
+        <v>0.1530606109953538</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04210683601709064</v>
+        <v>0.01154117350315431</v>
       </c>
       <c r="E2">
-        <v>0.02209440888720771</v>
+        <v>0.07351589593030106</v>
       </c>
       <c r="F2">
-        <v>2.86463099350118</v>
+        <v>1.074084204914811</v>
       </c>
       <c r="G2">
-        <v>3.242878158096318</v>
+        <v>1.063847557083534</v>
       </c>
       <c r="H2">
-        <v>1.554087456919348</v>
+        <v>0.7697743043384833</v>
       </c>
       <c r="I2">
-        <v>0.2267684993501291</v>
+        <v>0.3362160722058078</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.035957636619031</v>
+        <v>0.9204868426998587</v>
       </c>
       <c r="N2">
-        <v>1.443524694923425</v>
+        <v>1.166626603982138</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3598468715339465</v>
+        <v>0.1357775162107089</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03546886600269517</v>
+        <v>0.01012326647565942</v>
       </c>
       <c r="E3">
-        <v>0.02528202329067053</v>
+        <v>0.07544462030425381</v>
       </c>
       <c r="F3">
-        <v>2.453173077271245</v>
+        <v>0.9808143043797344</v>
       </c>
       <c r="G3">
-        <v>2.770198134609217</v>
+        <v>0.9535298163640391</v>
       </c>
       <c r="H3">
-        <v>1.338201103744581</v>
+        <v>0.7246785516775844</v>
       </c>
       <c r="I3">
-        <v>0.2274034621523988</v>
+        <v>0.3385680073173276</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.616501882523622</v>
+        <v>0.8060981082078627</v>
       </c>
       <c r="N3">
-        <v>1.357601231784059</v>
+        <v>1.140237364641536</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3271350910144264</v>
+        <v>0.1251454038286255</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03158044779529234</v>
+        <v>0.009261683489590666</v>
       </c>
       <c r="E4">
-        <v>0.02737762556491674</v>
+        <v>0.07669947880999484</v>
       </c>
       <c r="F4">
-        <v>2.208229832066976</v>
+        <v>0.9243249943486092</v>
       </c>
       <c r="G4">
-        <v>2.488704317072688</v>
+        <v>0.8864856452858021</v>
       </c>
       <c r="H4">
-        <v>1.210077434811268</v>
+        <v>0.6976036091732567</v>
       </c>
       <c r="I4">
-        <v>0.2282176466128334</v>
+        <v>0.3402367490133109</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.362891573420939</v>
+        <v>0.7359037417032823</v>
       </c>
       <c r="N4">
-        <v>1.30576651463069</v>
+        <v>1.12446952433541</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3137911605843584</v>
+        <v>0.1208080467930444</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03003535442234551</v>
+        <v>0.008912713245010195</v>
       </c>
       <c r="E5">
-        <v>0.0282649146874201</v>
+        <v>0.07722857663287064</v>
       </c>
       <c r="F5">
-        <v>2.110055204831227</v>
+        <v>0.9014962860631783</v>
       </c>
       <c r="G5">
-        <v>2.375848557738493</v>
+        <v>0.8593328219753857</v>
       </c>
       <c r="H5">
-        <v>1.158818884221802</v>
+        <v>0.6867222701876869</v>
       </c>
       <c r="I5">
-        <v>0.2286534028046212</v>
+        <v>0.3409733869191101</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.260352282279314</v>
+        <v>0.7073075512665099</v>
       </c>
       <c r="N5">
-        <v>1.284866922114446</v>
+        <v>1.118154575476808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3115745369899656</v>
+        <v>0.1200875608181349</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02978097183238049</v>
+        <v>0.008854891821606259</v>
       </c>
       <c r="E6">
-        <v>0.02841422006332106</v>
+        <v>0.0773175032557889</v>
       </c>
       <c r="F6">
-        <v>2.0938446194519</v>
+        <v>0.8977170052329484</v>
       </c>
       <c r="G6">
-        <v>2.357211783020432</v>
+        <v>0.8548341132772634</v>
       </c>
       <c r="H6">
-        <v>1.150360629252845</v>
+        <v>0.6849245357964548</v>
       </c>
       <c r="I6">
-        <v>0.2287319623408166</v>
+        <v>0.3410991279814652</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.24336968556598</v>
+        <v>0.7025596462919452</v>
       </c>
       <c r="N6">
-        <v>1.281409822350085</v>
+        <v>1.11711269477135</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3269551875998928</v>
+        <v>0.1250869271517985</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03155945969967888</v>
+        <v>0.009256968701372159</v>
       </c>
       <c r="E7">
-        <v>0.02738945881409816</v>
+        <v>0.07670654263909027</v>
       </c>
       <c r="F7">
-        <v>2.206899529703975</v>
+        <v>0.924016350619425</v>
       </c>
       <c r="G7">
-        <v>2.487175214538212</v>
+        <v>0.8861187790852512</v>
       </c>
       <c r="H7">
-        <v>1.20938248550695</v>
+        <v>0.697456247766155</v>
       </c>
       <c r="I7">
-        <v>0.2282231058999393</v>
+        <v>0.3402464541821182</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.361505640781019</v>
+        <v>0.7355180508983636</v>
       </c>
       <c r="N7">
-        <v>1.305483761325192</v>
+        <v>1.124383909510655</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3947121573165333</v>
+        <v>0.1471058310767859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03977426283744734</v>
+        <v>0.01105032498063707</v>
       </c>
       <c r="E8">
-        <v>0.02316382724870447</v>
+        <v>0.07416625000953347</v>
       </c>
       <c r="F8">
-        <v>2.720975823250996</v>
+        <v>1.041760238572977</v>
       </c>
       <c r="G8">
-        <v>3.077866919401998</v>
+        <v>1.025663066102538</v>
       </c>
       <c r="H8">
-        <v>1.478626620281403</v>
+        <v>0.7540963267523182</v>
       </c>
       <c r="I8">
-        <v>0.2268976785142094</v>
+        <v>0.3369804675519816</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.890395846254322</v>
+        <v>0.8810360903169254</v>
       </c>
       <c r="N8">
-        <v>1.413701407433422</v>
+        <v>1.157437915459255</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5273165784899732</v>
+        <v>0.1901089266194163</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05777727728423088</v>
+        <v>0.01464497206745108</v>
       </c>
       <c r="E9">
-        <v>0.01605231974436094</v>
+        <v>0.06974604841467702</v>
       </c>
       <c r="F9">
-        <v>3.80551677412538</v>
+        <v>1.279060346980458</v>
       </c>
       <c r="G9">
-        <v>4.323438697241301</v>
+        <v>1.305064320238671</v>
       </c>
       <c r="H9">
-        <v>2.05026650251051</v>
+        <v>0.8701589278946926</v>
       </c>
       <c r="I9">
-        <v>0.2277964681230351</v>
+        <v>0.3323532324168532</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.968362178342957</v>
+        <v>1.166811393090484</v>
       </c>
       <c r="N9">
-        <v>1.63367052119483</v>
+        <v>1.225665764728546</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6247480486956931</v>
+        <v>0.221578419272646</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07285300203212586</v>
+        <v>0.01734250503623258</v>
       </c>
       <c r="E10">
-        <v>0.01166980804080664</v>
+        <v>0.06684204630613699</v>
       </c>
       <c r="F10">
-        <v>4.674655241104148</v>
+        <v>1.45764155198205</v>
       </c>
       <c r="G10">
-        <v>5.321729579966529</v>
+        <v>1.514245240289199</v>
       </c>
       <c r="H10">
-        <v>2.511068224862811</v>
+        <v>0.9586495069499392</v>
       </c>
       <c r="I10">
-        <v>0.2307845703924727</v>
+        <v>0.3300307661997302</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.801308763352111</v>
+        <v>1.377173024363415</v>
       </c>
       <c r="N10">
-        <v>1.800687650925198</v>
+        <v>1.277818279842307</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6691173406841529</v>
+        <v>0.2358640717861249</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08031632621732854</v>
+        <v>0.01858396967108433</v>
       </c>
       <c r="E11">
-        <v>0.009894145993997405</v>
+        <v>0.06559583072891062</v>
       </c>
       <c r="F11">
-        <v>5.093091020825227</v>
+        <v>1.539876863569305</v>
       </c>
       <c r="G11">
-        <v>5.802503056323872</v>
+        <v>1.610343168017721</v>
       </c>
       <c r="H11">
-        <v>2.733619451728771</v>
+        <v>0.9996446275310973</v>
       </c>
       <c r="I11">
-        <v>0.2326963311814261</v>
+        <v>0.3292068331565119</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.193735469392124</v>
+        <v>1.472993933997117</v>
       </c>
       <c r="N11">
-        <v>1.878010057882619</v>
+        <v>1.301973137387648</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6859295655213202</v>
+        <v>0.2412690071209909</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08325167830466995</v>
+        <v>0.01905630532586144</v>
       </c>
       <c r="E12">
-        <v>0.009256758583302549</v>
+        <v>0.06513471100908408</v>
       </c>
       <c r="F12">
-        <v>5.255637151662029</v>
+        <v>1.571166514698405</v>
       </c>
       <c r="G12">
-        <v>5.989302082937172</v>
+        <v>1.64687510112617</v>
       </c>
       <c r="H12">
-        <v>2.820184696913202</v>
+        <v>1.015277959156037</v>
       </c>
       <c r="I12">
-        <v>0.233503951227501</v>
+        <v>0.3289281668162722</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.344769780834554</v>
+        <v>1.509299436028826</v>
       </c>
       <c r="N12">
-        <v>1.907498602071342</v>
+        <v>1.311180862379985</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6823082184834846</v>
+        <v>0.2401051746788596</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08261423229208731</v>
+        <v>0.01895447812247397</v>
       </c>
       <c r="E13">
-        <v>0.009392407558804994</v>
+        <v>0.06523354071491294</v>
       </c>
       <c r="F13">
-        <v>5.220433599471079</v>
+        <v>1.564421017391822</v>
       </c>
       <c r="G13">
-        <v>5.948844040061317</v>
+        <v>1.639000887379893</v>
       </c>
       <c r="H13">
-        <v>2.801431569270733</v>
+        <v>1.011906130231921</v>
       </c>
       <c r="I13">
-        <v>0.2333262232063191</v>
+        <v>0.3289867014581134</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.312124773534293</v>
+        <v>1.501479464890693</v>
       </c>
       <c r="N13">
-        <v>1.901138206414259</v>
+        <v>1.30919512691014</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6705002581435338</v>
+        <v>0.236308836288913</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08055548581937444</v>
+        <v>0.01862278360650294</v>
       </c>
       <c r="E14">
-        <v>0.009840982296260847</v>
+        <v>0.06555767758086883</v>
       </c>
       <c r="F14">
-        <v>5.106376670708812</v>
+        <v>1.542448065839181</v>
       </c>
       <c r="G14">
-        <v>5.817770179276579</v>
+        <v>1.613345793964641</v>
       </c>
       <c r="H14">
-        <v>2.74069252006251</v>
+        <v>1.000928582318238</v>
       </c>
       <c r="I14">
-        <v>0.2327610720979294</v>
+        <v>0.329183239528561</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.206109250643863</v>
+        <v>1.475980392690559</v>
       </c>
       <c r="N14">
-        <v>1.880431835760191</v>
+        <v>1.302729450026419</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6632690332742754</v>
+        <v>0.233982840829924</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07930940683844767</v>
+        <v>0.01841990496169643</v>
       </c>
       <c r="E15">
-        <v>0.01012042897193943</v>
+        <v>0.0657576276520615</v>
       </c>
       <c r="F15">
-        <v>5.037072639302238</v>
+        <v>1.529008555915169</v>
       </c>
       <c r="G15">
-        <v>5.73813145255906</v>
+        <v>1.597649961137051</v>
       </c>
       <c r="H15">
-        <v>2.703800734567096</v>
+        <v>0.9942188477979812</v>
       </c>
       <c r="I15">
-        <v>0.2324259293896986</v>
+        <v>0.3293079634769676</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.141504574668716</v>
+        <v>1.460364167337843</v>
       </c>
       <c r="N15">
-        <v>1.86777616354118</v>
+        <v>1.298776922772561</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6218496706938197</v>
+        <v>0.2206441790498559</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07237920950079513</v>
+        <v>0.01726167441371729</v>
       </c>
       <c r="E16">
-        <v>0.01179053587398071</v>
+        <v>0.06692499812982522</v>
       </c>
       <c r="F16">
-        <v>4.647836193502542</v>
+        <v>1.452287822223724</v>
       </c>
       <c r="G16">
-        <v>5.290919337763569</v>
+        <v>1.507984491938828</v>
       </c>
       <c r="H16">
-        <v>2.496818869348829</v>
+        <v>0.9559855240865431</v>
       </c>
       <c r="I16">
-        <v>0.2306711037679179</v>
+        <v>0.3300892831081654</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.775973987206612</v>
+        <v>1.370913617320767</v>
       </c>
       <c r="N16">
-        <v>1.79566275504564</v>
+        <v>1.276248270734811</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5964548456177852</v>
+        <v>0.2124533640376853</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06829695321704321</v>
+        <v>0.01655492222548105</v>
       </c>
       <c r="E17">
-        <v>0.01287331766268229</v>
+        <v>0.06766033213070166</v>
       </c>
       <c r="F17">
-        <v>4.415460973194143</v>
+        <v>1.405481540543008</v>
       </c>
       <c r="G17">
-        <v>5.023980892385794</v>
+        <v>1.453223092927573</v>
       </c>
       <c r="H17">
-        <v>2.373432037837858</v>
+        <v>0.9327222845900565</v>
       </c>
       <c r="I17">
-        <v>0.2297389841462874</v>
+        <v>0.3306280891867175</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.555509056074797</v>
+        <v>1.316072388364475</v>
       </c>
       <c r="N17">
-        <v>1.75177820595988</v>
+        <v>1.262537132569264</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5818526082511255</v>
+        <v>0.2077394272100719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06600433408939921</v>
+        <v>0.01614975753520298</v>
       </c>
       <c r="E18">
-        <v>0.01351636398119105</v>
+        <v>0.06809031798426002</v>
       </c>
       <c r="F18">
-        <v>4.283920301212419</v>
+        <v>1.378653394049735</v>
       </c>
       <c r="G18">
-        <v>4.87288850607419</v>
+        <v>1.421813911346504</v>
       </c>
       <c r="H18">
-        <v>2.303649694345722</v>
+        <v>0.9194113885291415</v>
       </c>
       <c r="I18">
-        <v>0.2292545813340219</v>
+        <v>0.3309598927157857</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.429940960240756</v>
+        <v>1.284540930510573</v>
       </c>
       <c r="N18">
-        <v>1.726662656599729</v>
+        <v>1.25469142545461</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5769091555702914</v>
+        <v>0.2061429017249168</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06523701345101784</v>
+        <v>0.01601280121402482</v>
       </c>
       <c r="E19">
-        <v>0.01373746713470325</v>
+        <v>0.06823711209332739</v>
       </c>
       <c r="F19">
-        <v>4.239725169237175</v>
+        <v>1.369585754576377</v>
       </c>
       <c r="G19">
-        <v>4.822126316730106</v>
+        <v>1.411194242081081</v>
       </c>
       <c r="H19">
-        <v>2.280214727257601</v>
+        <v>0.9149163973855821</v>
       </c>
       <c r="I19">
-        <v>0.2290993314012191</v>
+        <v>0.3310759996354946</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.387625123997807</v>
+        <v>1.273866880759016</v>
       </c>
       <c r="N19">
-        <v>1.7181801211687</v>
+        <v>1.252042006396948</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5991577083980246</v>
+        <v>0.2133255827780829</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06872564027975159</v>
+        <v>0.01663001733761149</v>
       </c>
       <c r="E20">
-        <v>0.01275593259422303</v>
+        <v>0.0675813255869846</v>
       </c>
       <c r="F20">
-        <v>4.439973672859907</v>
+        <v>1.410454423994253</v>
       </c>
       <c r="G20">
-        <v>5.052138086156276</v>
+        <v>1.459043369891788</v>
       </c>
       <c r="H20">
-        <v>2.386441154367674</v>
+        <v>0.9351914818313389</v>
       </c>
       <c r="I20">
-        <v>0.2298328266116876</v>
+        <v>0.3305684669124851</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.578846651725925</v>
+        <v>1.321909098500853</v>
       </c>
       <c r="N20">
-        <v>1.756436680806985</v>
+        <v>1.263992515017264</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6739682240414879</v>
+        <v>0.2374240446401927</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08115702399658176</v>
+        <v>0.01872014880842698</v>
       </c>
       <c r="E21">
-        <v>0.009708241744844859</v>
+        <v>0.06546217746994376</v>
       </c>
       <c r="F21">
-        <v>5.13975979147898</v>
+        <v>1.548897968758297</v>
       </c>
       <c r="G21">
-        <v>5.856132828572242</v>
+        <v>1.620877417836653</v>
       </c>
       <c r="H21">
-        <v>2.758466988317991</v>
+        <v>1.004149962484234</v>
       </c>
       <c r="I21">
-        <v>0.2329247642828491</v>
+        <v>0.3291246075330534</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.237178174867125</v>
+        <v>1.4834695234306</v>
       </c>
       <c r="N21">
-        <v>1.886508023376877</v>
+        <v>1.304626934431013</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.722924749755208</v>
+        <v>0.2531460121449811</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0899324000311168</v>
+        <v>0.02009918523611987</v>
       </c>
       <c r="E22">
-        <v>0.007922776992212555</v>
+        <v>0.06414013037422883</v>
       </c>
       <c r="F22">
-        <v>5.621468389682121</v>
+        <v>1.640249465548948</v>
       </c>
       <c r="G22">
-        <v>6.409803626065923</v>
+        <v>1.72747455454487</v>
       </c>
       <c r="H22">
-        <v>3.015230638842354</v>
+        <v>1.049857197097424</v>
       </c>
       <c r="I22">
-        <v>0.2354354730146397</v>
+        <v>0.3283752417875654</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.681916988028135</v>
+        <v>1.58917735517565</v>
       </c>
       <c r="N22">
-        <v>1.972738684945625</v>
+        <v>1.331537799030713</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6967885464179062</v>
+        <v>0.2447575814097149</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08518046431571946</v>
+        <v>0.01936192392242475</v>
       </c>
       <c r="E23">
-        <v>0.008855415167717151</v>
+        <v>0.06483996119360658</v>
       </c>
       <c r="F23">
-        <v>5.361837519167381</v>
+        <v>1.591411965510304</v>
       </c>
       <c r="G23">
-        <v>6.111360526456394</v>
+        <v>1.670503604834153</v>
       </c>
       <c r="H23">
-        <v>2.876775385754399</v>
+        <v>1.025402950268528</v>
       </c>
       <c r="I23">
-        <v>0.2340491423999111</v>
+        <v>0.3287574495219516</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.443034996043878</v>
+        <v>1.532747539160823</v>
       </c>
       <c r="N23">
-        <v>1.926598764512391</v>
+        <v>1.317142935662361</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5979357519313453</v>
+        <v>0.2129312680036719</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06853166324505366</v>
+        <v>0.01659606324762564</v>
       </c>
       <c r="E24">
-        <v>0.01280893867189148</v>
+        <v>0.06761702192029961</v>
       </c>
       <c r="F24">
-        <v>4.428885136997678</v>
+        <v>1.408205930227012</v>
       </c>
       <c r="G24">
-        <v>5.039400889947046</v>
+        <v>1.456411793058095</v>
       </c>
       <c r="H24">
-        <v>2.380556168304679</v>
+        <v>0.9340749603447875</v>
       </c>
       <c r="I24">
-        <v>0.2297902403844674</v>
+        <v>0.3305953534953012</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.568292084187803</v>
+        <v>1.319270329802563</v>
       </c>
       <c r="N24">
-        <v>1.754330229525323</v>
+        <v>1.263334421255394</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4914557128344939</v>
+        <v>0.178496116742707</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05264057945954193</v>
+        <v>0.01366325940277591</v>
       </c>
       <c r="E25">
-        <v>0.01783860750090938</v>
+        <v>0.07088160355633732</v>
       </c>
       <c r="F25">
-        <v>3.501550639776269</v>
+        <v>1.2141446965623</v>
       </c>
       <c r="G25">
-        <v>3.974360441549891</v>
+        <v>1.228822163494527</v>
       </c>
       <c r="H25">
-        <v>1.889632859816857</v>
+        <v>0.8382084943262953</v>
       </c>
       <c r="I25">
-        <v>0.2271595070765571</v>
+        <v>0.3334154099205904</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.670885059698506</v>
+        <v>1.089441956060696</v>
       </c>
       <c r="N25">
-        <v>1.573266482613917</v>
+        <v>1.206848876835522</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1530606109953538</v>
+        <v>0.4130471769718866</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01154117350315431</v>
+        <v>0.04210683601709775</v>
       </c>
       <c r="E2">
-        <v>0.07351589593030106</v>
+        <v>0.02209440888720859</v>
       </c>
       <c r="F2">
-        <v>1.074084204914811</v>
+        <v>2.864630993501152</v>
       </c>
       <c r="G2">
-        <v>1.063847557083534</v>
+        <v>3.242878158096374</v>
       </c>
       <c r="H2">
-        <v>0.7697743043384833</v>
+        <v>1.554087456919461</v>
       </c>
       <c r="I2">
-        <v>0.3362160722058078</v>
+        <v>0.2267684993501256</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9204868426998587</v>
+        <v>3.035957636619045</v>
       </c>
       <c r="N2">
-        <v>1.166626603982138</v>
+        <v>1.44352469492344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1357775162107089</v>
+        <v>0.359846871533847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01012326647565942</v>
+        <v>0.03546886600280885</v>
       </c>
       <c r="E3">
-        <v>0.07544462030425381</v>
+        <v>0.02528202329064611</v>
       </c>
       <c r="F3">
-        <v>0.9808143043797344</v>
+        <v>2.453173077271231</v>
       </c>
       <c r="G3">
-        <v>0.9535298163640391</v>
+        <v>2.770198134609302</v>
       </c>
       <c r="H3">
-        <v>0.7246785516775844</v>
+        <v>1.338201103744467</v>
       </c>
       <c r="I3">
-        <v>0.3385680073173276</v>
+        <v>0.2274034621523988</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8060981082078627</v>
+        <v>2.616501882523622</v>
       </c>
       <c r="N3">
-        <v>1.140237364641536</v>
+        <v>1.357601231783988</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1251454038286255</v>
+        <v>0.3271350910144406</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009261683489590666</v>
+        <v>0.03158044779539182</v>
       </c>
       <c r="E4">
-        <v>0.07669947880999484</v>
+        <v>0.02737762556494339</v>
       </c>
       <c r="F4">
-        <v>0.9243249943486092</v>
+        <v>2.208229832067005</v>
       </c>
       <c r="G4">
-        <v>0.8864856452858021</v>
+        <v>2.488704317072688</v>
       </c>
       <c r="H4">
-        <v>0.6976036091732567</v>
+        <v>1.210077434811268</v>
       </c>
       <c r="I4">
-        <v>0.3402367490133109</v>
+        <v>0.2282176466128334</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7359037417032823</v>
+        <v>2.36289157342101</v>
       </c>
       <c r="N4">
-        <v>1.12446952433541</v>
+        <v>1.305766514630676</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1208080467930444</v>
+        <v>0.3137911605841026</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008912713245010195</v>
+        <v>0.03003535442234551</v>
       </c>
       <c r="E5">
-        <v>0.07722857663287064</v>
+        <v>0.02826491468737924</v>
       </c>
       <c r="F5">
-        <v>0.9014962860631783</v>
+        <v>2.110055204831241</v>
       </c>
       <c r="G5">
-        <v>0.8593328219753857</v>
+        <v>2.375848557738578</v>
       </c>
       <c r="H5">
-        <v>0.6867222701876869</v>
+        <v>1.158818884221688</v>
       </c>
       <c r="I5">
-        <v>0.3409733869191101</v>
+        <v>0.2286534028046532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7073075512665099</v>
+        <v>2.260352282279285</v>
       </c>
       <c r="N5">
-        <v>1.118154575476808</v>
+        <v>1.284866922114375</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1200875608181349</v>
+        <v>0.3115745369898377</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008854891821606259</v>
+        <v>0.02978097183249417</v>
       </c>
       <c r="E6">
-        <v>0.0773175032557889</v>
+        <v>0.02841422006331973</v>
       </c>
       <c r="F6">
-        <v>0.8977170052329484</v>
+        <v>2.093844619451914</v>
       </c>
       <c r="G6">
-        <v>0.8548341132772634</v>
+        <v>2.357211783020347</v>
       </c>
       <c r="H6">
-        <v>0.6849245357964548</v>
+        <v>1.150360629252759</v>
       </c>
       <c r="I6">
-        <v>0.3410991279814652</v>
+        <v>0.2287319623407882</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7025596462919452</v>
+        <v>2.24336968556598</v>
       </c>
       <c r="N6">
-        <v>1.11711269477135</v>
+        <v>1.281409822350099</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1250869271517985</v>
+        <v>0.3269551876001344</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009256968701372159</v>
+        <v>0.03155945969967178</v>
       </c>
       <c r="E7">
-        <v>0.07670654263909027</v>
+        <v>0.02738945881409682</v>
       </c>
       <c r="F7">
-        <v>0.924016350619425</v>
+        <v>2.206899529703975</v>
       </c>
       <c r="G7">
-        <v>0.8861187790852512</v>
+        <v>2.487175214538183</v>
       </c>
       <c r="H7">
-        <v>0.697456247766155</v>
+        <v>1.209382485506978</v>
       </c>
       <c r="I7">
-        <v>0.3402464541821182</v>
+        <v>0.2282231058999677</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7355180508983636</v>
+        <v>2.361505640781004</v>
       </c>
       <c r="N7">
-        <v>1.124383909510655</v>
+        <v>1.305483761325149</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1471058310767859</v>
+        <v>0.3947121573166328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01105032498063707</v>
+        <v>0.03977426283734076</v>
       </c>
       <c r="E8">
-        <v>0.07416625000953347</v>
+        <v>0.02316382724870403</v>
       </c>
       <c r="F8">
-        <v>1.041760238572977</v>
+        <v>2.720975823251024</v>
       </c>
       <c r="G8">
-        <v>1.025663066102538</v>
+        <v>3.077866919401998</v>
       </c>
       <c r="H8">
-        <v>0.7540963267523182</v>
+        <v>1.478626620281403</v>
       </c>
       <c r="I8">
-        <v>0.3369804675519816</v>
+        <v>0.2268976785142094</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8810360903169254</v>
+        <v>2.890395846254322</v>
       </c>
       <c r="N8">
-        <v>1.157437915459255</v>
+        <v>1.413701407433436</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1901089266194163</v>
+        <v>0.5273165784900584</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01464497206745108</v>
+        <v>0.05777727728414561</v>
       </c>
       <c r="E9">
-        <v>0.06974604841467702</v>
+        <v>0.01605231974439336</v>
       </c>
       <c r="F9">
-        <v>1.279060346980458</v>
+        <v>3.805516774125323</v>
       </c>
       <c r="G9">
-        <v>1.305064320238671</v>
+        <v>4.323438697241329</v>
       </c>
       <c r="H9">
-        <v>0.8701589278946926</v>
+        <v>2.050266502510482</v>
       </c>
       <c r="I9">
-        <v>0.3323532324168532</v>
+        <v>0.2277964681230351</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.166811393090484</v>
+        <v>3.968362178342943</v>
       </c>
       <c r="N9">
-        <v>1.225665764728546</v>
+        <v>1.63367052119483</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.221578419272646</v>
+        <v>0.6247480486958352</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01734250503623258</v>
+        <v>0.07285300203233191</v>
       </c>
       <c r="E10">
-        <v>0.06684204630613699</v>
+        <v>0.01166980804077911</v>
       </c>
       <c r="F10">
-        <v>1.45764155198205</v>
+        <v>4.674655241104205</v>
       </c>
       <c r="G10">
-        <v>1.514245240289199</v>
+        <v>5.321729579966529</v>
       </c>
       <c r="H10">
-        <v>0.9586495069499392</v>
+        <v>2.511068224862811</v>
       </c>
       <c r="I10">
-        <v>0.3300307661997302</v>
+        <v>0.2307845703924691</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.377173024363415</v>
+        <v>4.801308763352111</v>
       </c>
       <c r="N10">
-        <v>1.277818279842307</v>
+        <v>1.800687650925198</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2358640717861249</v>
+        <v>0.6691173406841529</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01858396967108433</v>
+        <v>0.08031632621712248</v>
       </c>
       <c r="E11">
-        <v>0.06559583072891062</v>
+        <v>0.00989414599397076</v>
       </c>
       <c r="F11">
-        <v>1.539876863569305</v>
+        <v>5.093091020825256</v>
       </c>
       <c r="G11">
-        <v>1.610343168017721</v>
+        <v>5.802503056323928</v>
       </c>
       <c r="H11">
-        <v>0.9996446275310973</v>
+        <v>2.733619451728657</v>
       </c>
       <c r="I11">
-        <v>0.3292068331565119</v>
+        <v>0.2326963311814261</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.472993933997117</v>
+        <v>5.193735469392138</v>
       </c>
       <c r="N11">
-        <v>1.301973137387648</v>
+        <v>1.878010057882619</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2412690071209909</v>
+        <v>0.6859295655214339</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01905630532586144</v>
+        <v>0.08325167830450653</v>
       </c>
       <c r="E12">
-        <v>0.06513471100908408</v>
+        <v>0.00925675858332653</v>
       </c>
       <c r="F12">
-        <v>1.571166514698405</v>
+        <v>5.255637151662029</v>
       </c>
       <c r="G12">
-        <v>1.64687510112617</v>
+        <v>5.989302082937172</v>
       </c>
       <c r="H12">
-        <v>1.015277959156037</v>
+        <v>2.820184696913145</v>
       </c>
       <c r="I12">
-        <v>0.3289281668162722</v>
+        <v>0.2335039512274726</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.509299436028826</v>
+        <v>5.344769780834568</v>
       </c>
       <c r="N12">
-        <v>1.311180862379985</v>
+        <v>1.907498602071371</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2401051746788596</v>
+        <v>0.6823082184832288</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01895447812247397</v>
+        <v>0.08261423229229337</v>
       </c>
       <c r="E13">
-        <v>0.06523354071491294</v>
+        <v>0.009392407558795668</v>
       </c>
       <c r="F13">
-        <v>1.564421017391822</v>
+        <v>5.220433599471079</v>
       </c>
       <c r="G13">
-        <v>1.639000887379893</v>
+        <v>5.948844040061317</v>
       </c>
       <c r="H13">
-        <v>1.011906130231921</v>
+        <v>2.801431569270733</v>
       </c>
       <c r="I13">
-        <v>0.3289867014581134</v>
+        <v>0.2333262232063227</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.501479464890693</v>
+        <v>5.312124773534322</v>
       </c>
       <c r="N13">
-        <v>1.30919512691014</v>
+        <v>1.901138206414373</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.236308836288913</v>
+        <v>0.6705002581434201</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01862278360650294</v>
+        <v>0.08055548581973682</v>
       </c>
       <c r="E14">
-        <v>0.06555767758086883</v>
+        <v>0.009840982296262624</v>
       </c>
       <c r="F14">
-        <v>1.542448065839181</v>
+        <v>5.10637667070884</v>
       </c>
       <c r="G14">
-        <v>1.613345793964641</v>
+        <v>5.817770179276749</v>
       </c>
       <c r="H14">
-        <v>1.000928582318238</v>
+        <v>2.740692520062453</v>
       </c>
       <c r="I14">
-        <v>0.329183239528561</v>
+        <v>0.2327610720979365</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.475980392690559</v>
+        <v>5.206109250643905</v>
       </c>
       <c r="N14">
-        <v>1.302729450026419</v>
+        <v>1.880431835760163</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.233982840829924</v>
+        <v>0.6632690332742754</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01841990496169643</v>
+        <v>0.07930940683858978</v>
       </c>
       <c r="E15">
-        <v>0.0657576276520615</v>
+        <v>0.01012042897193721</v>
       </c>
       <c r="F15">
-        <v>1.529008555915169</v>
+        <v>5.037072639302266</v>
       </c>
       <c r="G15">
-        <v>1.597649961137051</v>
+        <v>5.73813145255906</v>
       </c>
       <c r="H15">
-        <v>0.9942188477979812</v>
+        <v>2.703800734567153</v>
       </c>
       <c r="I15">
-        <v>0.3293079634769676</v>
+        <v>0.2324259293897271</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.460364167337843</v>
+        <v>5.141504574668716</v>
       </c>
       <c r="N15">
-        <v>1.298776922772561</v>
+        <v>1.867776163541208</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2206441790498559</v>
+        <v>0.6218496706939334</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01726167441371729</v>
+        <v>0.07237920950057486</v>
       </c>
       <c r="E16">
-        <v>0.06692499812982522</v>
+        <v>0.01179053587397494</v>
       </c>
       <c r="F16">
-        <v>1.452287822223724</v>
+        <v>4.647836193502599</v>
       </c>
       <c r="G16">
-        <v>1.507984491938828</v>
+        <v>5.290919337763512</v>
       </c>
       <c r="H16">
-        <v>0.9559855240865431</v>
+        <v>2.496818869348886</v>
       </c>
       <c r="I16">
-        <v>0.3300892831081654</v>
+        <v>0.2306711037679143</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.370913617320767</v>
+        <v>4.775973987206655</v>
       </c>
       <c r="N16">
-        <v>1.276248270734811</v>
+        <v>1.795662755045527</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2124533640376853</v>
+        <v>0.5964548456180125</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01655492222548105</v>
+        <v>0.0682969532174198</v>
       </c>
       <c r="E17">
-        <v>0.06766033213070166</v>
+        <v>0.01287331766268451</v>
       </c>
       <c r="F17">
-        <v>1.405481540543008</v>
+        <v>4.415460973194143</v>
       </c>
       <c r="G17">
-        <v>1.453223092927573</v>
+        <v>5.023980892385907</v>
       </c>
       <c r="H17">
-        <v>0.9327222845900565</v>
+        <v>2.373432037837858</v>
       </c>
       <c r="I17">
-        <v>0.3306280891867175</v>
+        <v>0.2297389841462625</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.316072388364475</v>
+        <v>4.555509056074811</v>
       </c>
       <c r="N17">
-        <v>1.262537132569264</v>
+        <v>1.75177820595988</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2077394272100719</v>
+        <v>0.5818526082510687</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01614975753520298</v>
+        <v>0.06600433408903683</v>
       </c>
       <c r="E18">
-        <v>0.06809031798426002</v>
+        <v>0.01351636398116707</v>
       </c>
       <c r="F18">
-        <v>1.378653394049735</v>
+        <v>4.28392030121239</v>
       </c>
       <c r="G18">
-        <v>1.421813911346504</v>
+        <v>4.872888506074133</v>
       </c>
       <c r="H18">
-        <v>0.9194113885291415</v>
+        <v>2.303649694345722</v>
       </c>
       <c r="I18">
-        <v>0.3309598927157857</v>
+        <v>0.2292545813339935</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.284540930510573</v>
+        <v>4.429940960240728</v>
       </c>
       <c r="N18">
-        <v>1.25469142545461</v>
+        <v>1.7266626565997</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2061429017249168</v>
+        <v>0.5769091555699788</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01601280121402482</v>
+        <v>0.0652370134512239</v>
       </c>
       <c r="E19">
-        <v>0.06823711209332739</v>
+        <v>0.01373746713468327</v>
       </c>
       <c r="F19">
-        <v>1.369585754576377</v>
+        <v>4.239725169237204</v>
       </c>
       <c r="G19">
-        <v>1.411194242081081</v>
+        <v>4.822126316730248</v>
       </c>
       <c r="H19">
-        <v>0.9149163973855821</v>
+        <v>2.280214727257601</v>
       </c>
       <c r="I19">
-        <v>0.3310759996354946</v>
+        <v>0.2290993314012191</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.273866880759016</v>
+        <v>4.387625123997807</v>
       </c>
       <c r="N19">
-        <v>1.252042006396948</v>
+        <v>1.7181801211687</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2133255827780829</v>
+        <v>0.599157708398053</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01663001733761149</v>
+        <v>0.06872564027971606</v>
       </c>
       <c r="E20">
-        <v>0.0675813255869846</v>
+        <v>0.01275593259424124</v>
       </c>
       <c r="F20">
-        <v>1.410454423994253</v>
+        <v>4.439973672859935</v>
       </c>
       <c r="G20">
-        <v>1.459043369891788</v>
+        <v>5.05213808615639</v>
       </c>
       <c r="H20">
-        <v>0.9351914818313389</v>
+        <v>2.386441154367731</v>
       </c>
       <c r="I20">
-        <v>0.3305684669124851</v>
+        <v>0.2298328266117124</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.321909098500853</v>
+        <v>4.578846651725911</v>
       </c>
       <c r="N20">
-        <v>1.263992515017264</v>
+        <v>1.756436680806985</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2374240446401927</v>
+        <v>0.6739682240414311</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01872014880842698</v>
+        <v>0.08115702399617675</v>
       </c>
       <c r="E21">
-        <v>0.06546217746994376</v>
+        <v>0.009708241744816881</v>
       </c>
       <c r="F21">
-        <v>1.548897968758297</v>
+        <v>5.139759791478951</v>
       </c>
       <c r="G21">
-        <v>1.620877417836653</v>
+        <v>5.856132828572299</v>
       </c>
       <c r="H21">
-        <v>1.004149962484234</v>
+        <v>2.758466988317991</v>
       </c>
       <c r="I21">
-        <v>0.3291246075330534</v>
+        <v>0.2329247642828491</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.4834695234306</v>
+        <v>5.237178174867097</v>
       </c>
       <c r="N21">
-        <v>1.304626934431013</v>
+        <v>1.88650802337682</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2531460121449811</v>
+        <v>0.7229247497554354</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02009918523611987</v>
+        <v>0.08993240003142233</v>
       </c>
       <c r="E22">
-        <v>0.06414013037422883</v>
+        <v>0.007922776992191682</v>
       </c>
       <c r="F22">
-        <v>1.640249465548948</v>
+        <v>5.621468389682121</v>
       </c>
       <c r="G22">
-        <v>1.72747455454487</v>
+        <v>6.409803626065809</v>
       </c>
       <c r="H22">
-        <v>1.049857197097424</v>
+        <v>3.015230638842297</v>
       </c>
       <c r="I22">
-        <v>0.3283752417875654</v>
+        <v>0.2354354730146397</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.58917735517565</v>
+        <v>5.681916988028107</v>
       </c>
       <c r="N22">
-        <v>1.331537799030713</v>
+        <v>1.972738684945739</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2447575814097149</v>
+        <v>0.6967885464177357</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01936192392242475</v>
+        <v>0.08518046431571946</v>
       </c>
       <c r="E23">
-        <v>0.06483996119360658</v>
+        <v>0.008855415167718483</v>
       </c>
       <c r="F23">
-        <v>1.591411965510304</v>
+        <v>5.361837519167381</v>
       </c>
       <c r="G23">
-        <v>1.670503604834153</v>
+        <v>6.111360526456508</v>
       </c>
       <c r="H23">
-        <v>1.025402950268528</v>
+        <v>2.876775385754456</v>
       </c>
       <c r="I23">
-        <v>0.3287574495219516</v>
+        <v>0.2340491423998898</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.532747539160823</v>
+        <v>5.443034996043892</v>
       </c>
       <c r="N23">
-        <v>1.317142935662361</v>
+        <v>1.926598764512335</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2129312680036719</v>
+        <v>0.5979357519313453</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01659606324762564</v>
+        <v>0.06853166324532367</v>
       </c>
       <c r="E24">
-        <v>0.06761702192029961</v>
+        <v>0.01280893867191724</v>
       </c>
       <c r="F24">
-        <v>1.408205930227012</v>
+        <v>4.428885136997735</v>
       </c>
       <c r="G24">
-        <v>1.456411793058095</v>
+        <v>5.039400889947217</v>
       </c>
       <c r="H24">
-        <v>0.9340749603447875</v>
+        <v>2.380556168304793</v>
       </c>
       <c r="I24">
-        <v>0.3305953534953012</v>
+        <v>0.2297902403844354</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.319270329802563</v>
+        <v>4.568292084187817</v>
       </c>
       <c r="N24">
-        <v>1.263334421255394</v>
+        <v>1.754330229525465</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.178496116742707</v>
+        <v>0.4914557128344654</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01366325940277591</v>
+        <v>0.05264057945979062</v>
       </c>
       <c r="E25">
-        <v>0.07088160355633732</v>
+        <v>0.01783860750090716</v>
       </c>
       <c r="F25">
-        <v>1.2141446965623</v>
+        <v>3.501550639776326</v>
       </c>
       <c r="G25">
-        <v>1.228822163494527</v>
+        <v>3.974360441549862</v>
       </c>
       <c r="H25">
-        <v>0.8382084943262953</v>
+        <v>1.889632859816857</v>
       </c>
       <c r="I25">
-        <v>0.3334154099205904</v>
+        <v>0.2271595070765571</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.089441956060696</v>
+        <v>3.670885059698534</v>
       </c>
       <c r="N25">
-        <v>1.206848876835522</v>
+        <v>1.573266482613917</v>
       </c>
       <c r="O25">
         <v>0</v>
